--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/OHIO_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/OHIO_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D905"/>
+  <dimension ref="A1:D899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="12">
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="15">
@@ -617,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C22">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -948,14 +948,14 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="45">
@@ -974,7 +974,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C46">
@@ -1078,7 +1078,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C54">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C75">
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="D92">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="93">
@@ -1613,7 +1613,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C94">
@@ -1639,7 +1639,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C100">
@@ -1794,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="108">
@@ -1896,7 +1896,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C115">
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="D117">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="118">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="120">
@@ -2078,7 +2078,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C129">
@@ -2098,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="131">
@@ -2150,18 +2150,18 @@
         <v>41</v>
       </c>
       <c r="D134">
-        <v>0.009259259259259259</v>
+        <v>0.00925925925925926</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C135">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C137">
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="D139">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C141">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C145">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C148">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C153">
@@ -2447,14 +2447,14 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="158">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C165">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C172">
@@ -2655,20 +2655,20 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C173">
         <v>4</v>
       </c>
       <c r="D173">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C174">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C183">
@@ -2831,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="D186">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="187">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C188">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,14 +2928,14 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C194">
         <v>4</v>
       </c>
       <c r="D194">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="195">
@@ -2948,7 +2948,7 @@
         <v>4</v>
       </c>
       <c r="D195">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="196">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C207">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C214">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C217">
@@ -3369,13 +3369,13 @@
         <v>4</v>
       </c>
       <c r="D227">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C228">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C230">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C234">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C240">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C242">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C244">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C251">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C254">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C258">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,14 +3835,14 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C263">
         <v>4</v>
       </c>
       <c r="D263">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="264">
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="272">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C277">
@@ -4050,13 +4050,13 @@
         <v>4</v>
       </c>
       <c r="D279">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C280">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C282">
@@ -4115,13 +4115,13 @@
         <v>4</v>
       </c>
       <c r="D284">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C285">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C295">
@@ -4276,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="D296">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="297">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C300">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C304">
@@ -4406,13 +4406,13 @@
         <v>4</v>
       </c>
       <c r="D306">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C307">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C312">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C314">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C322">
@@ -4627,7 +4627,7 @@
         <v>4</v>
       </c>
       <c r="D323">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="324">
@@ -4646,14 +4646,14 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C325">
         <v>4</v>
       </c>
       <c r="D325">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C327">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C333">
@@ -4898,14 +4898,14 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C344">
         <v>4</v>
       </c>
       <c r="D344">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C347">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C353">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C355">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C361">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C378">
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="D382">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="383">
@@ -5573,7 +5573,7 @@
         <v>41</v>
       </c>
       <c r="D395">
-        <v>0.009259259259259259</v>
+        <v>0.00925925925925926</v>
       </c>
     </row>
     <row r="396">
@@ -5807,7 +5807,7 @@
         <v>42</v>
       </c>
       <c r="D413">
-        <v>0.009485094850948509</v>
+        <v>0.009485094850948507</v>
       </c>
     </row>
     <row r="414">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C423">
@@ -6093,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="D435">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="436">
@@ -6132,7 +6132,7 @@
         <v>4</v>
       </c>
       <c r="D438">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="439">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C449">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C450">
@@ -6358,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="D455">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="456">
@@ -6434,7 +6434,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C461">
@@ -6569,7 +6569,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C471">
@@ -6613,7 +6613,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C474">
@@ -6659,7 +6659,7 @@
         <v>4</v>
       </c>
       <c r="D477">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="478">
@@ -6704,7 +6704,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C481">
@@ -6717,7 +6717,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C482">
@@ -6730,7 +6730,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C483">
@@ -6743,7 +6743,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C484">
@@ -6769,7 +6769,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C486">
@@ -6782,7 +6782,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C487">
@@ -6795,7 +6795,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C488">
@@ -6808,7 +6808,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C489">
@@ -6821,7 +6821,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C490">
@@ -6899,7 +6899,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C496">
@@ -6925,7 +6925,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C498">
@@ -6938,7 +6938,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C499">
@@ -6964,7 +6964,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C501">
@@ -6977,7 +6977,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C502">
@@ -6990,7 +6990,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C503">
@@ -7003,7 +7003,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C504">
@@ -7055,7 +7055,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C508">
@@ -7081,7 +7081,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C510">
@@ -7107,7 +7107,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C512">
@@ -7224,7 +7224,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C521">
@@ -7250,7 +7250,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C523">
@@ -7387,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="D533">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="534">
@@ -7692,7 +7692,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C557">
@@ -7738,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="D560">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="561">
@@ -7829,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="D567">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="568">
@@ -7959,7 +7959,7 @@
         <v>4</v>
       </c>
       <c r="D577">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="578">
@@ -7978,7 +7978,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C579">
@@ -8082,14 +8082,14 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C587">
         <v>4</v>
       </c>
       <c r="D587">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="588">
@@ -8238,7 +8238,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C599">
@@ -8271,7 +8271,7 @@
         <v>4</v>
       </c>
       <c r="D601">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="602">
@@ -8362,7 +8362,7 @@
         <v>4</v>
       </c>
       <c r="D608">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="609">
@@ -8427,7 +8427,7 @@
         <v>4</v>
       </c>
       <c r="D613">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="614">
@@ -8472,7 +8472,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C617">
@@ -8485,7 +8485,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C618">
@@ -8498,7 +8498,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C619">
@@ -8524,7 +8524,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C621">
@@ -8550,7 +8550,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C623">
@@ -8563,20 +8563,20 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C624">
         <v>4</v>
       </c>
       <c r="D624">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C625">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C633">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C635">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C650">
@@ -9056,7 +9056,7 @@
         <v>4</v>
       </c>
       <c r="D661">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="662">
@@ -9069,7 +9069,7 @@
         <v>4</v>
       </c>
       <c r="D662">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="663">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C668">
@@ -9205,14 +9205,14 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C673">
         <v>4</v>
       </c>
       <c r="D673">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="674">
@@ -9225,7 +9225,7 @@
         <v>4</v>
       </c>
       <c r="D674">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="675">
@@ -9392,14 +9392,14 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C687">
         <v>4</v>
       </c>
       <c r="D687">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="688">
@@ -9418,14 +9418,14 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C689">
         <v>4</v>
       </c>
       <c r="D689">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="690">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C694">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C696">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C698">
@@ -9636,14 +9636,14 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C705">
         <v>4</v>
       </c>
       <c r="D705">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="706">
@@ -9675,7 +9675,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C708">
@@ -9740,7 +9740,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C713">
@@ -9818,7 +9818,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C719">
@@ -9831,7 +9831,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C720">
@@ -9844,7 +9844,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C721">
@@ -10152,7 +10152,7 @@
         <v>4</v>
       </c>
       <c r="D743">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="744">
@@ -10191,7 +10191,7 @@
         <v>4</v>
       </c>
       <c r="D746">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="747">
@@ -10326,7 +10326,7 @@
         <v>4</v>
       </c>
       <c r="D756">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="757">
@@ -10456,7 +10456,7 @@
         <v>4</v>
       </c>
       <c r="D766">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="767">
@@ -10501,7 +10501,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C770">
@@ -10610,7 +10610,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C778">
@@ -10662,7 +10662,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C782">
@@ -10688,7 +10688,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C784">
@@ -10714,7 +10714,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C786">
@@ -10740,7 +10740,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C788">
@@ -10914,7 +10914,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C801">
@@ -10940,7 +10940,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C803">
@@ -11025,7 +11025,7 @@
         <v>4</v>
       </c>
       <c r="D809">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="810">
@@ -11044,7 +11044,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C811">
@@ -11142,7 +11142,7 @@
         <v>4</v>
       </c>
       <c r="D818">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="819">
@@ -11161,7 +11161,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C820">
@@ -11187,7 +11187,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C822">
@@ -11272,7 +11272,7 @@
         <v>4</v>
       </c>
       <c r="D828">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="829">
@@ -11343,7 +11343,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C834">
@@ -11428,7 +11428,7 @@
         <v>4</v>
       </c>
       <c r="D840">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="841">
@@ -11460,7 +11460,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C843">
@@ -11473,7 +11473,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C844">
@@ -11512,7 +11512,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C847">
@@ -11571,13 +11571,13 @@
         <v>4</v>
       </c>
       <c r="D851">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C852">
@@ -11590,7 +11590,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C853">
@@ -11636,7 +11636,7 @@
         <v>4</v>
       </c>
       <c r="D856">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="857">
@@ -11649,7 +11649,7 @@
         <v>4</v>
       </c>
       <c r="D857">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="858">
@@ -11772,14 +11772,14 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C867">
         <v>4</v>
       </c>
       <c r="D867">
-        <v>0.0009033423667570009</v>
+        <v>0.0009033423667570008</v>
       </c>
     </row>
     <row r="868">
@@ -11928,7 +11928,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C879">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C886">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C893">
@@ -12201,41 +12201,6 @@
       </c>
       <c r="D899">
         <v>1</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
